--- a/Corel-100-distance.xlsx
+++ b/Corel-100-distance.xlsx
@@ -722,7 +722,7 @@
         <v>0.5591575691626894</v>
       </c>
       <c r="CW1" t="n">
-        <v>0.256647691575202</v>
+        <v>0.69674628497424</v>
       </c>
     </row>
     <row r="2">
@@ -1027,7 +1027,7 @@
         <v>0.483190620643464</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.7826124356669476</v>
+        <v>0.6095131131551291</v>
       </c>
     </row>
     <row r="3">
@@ -1332,7 +1332,7 @@
         <v>0.4534255425034038</v>
       </c>
       <c r="CW3" t="n">
-        <v>0.6580181953493837</v>
+        <v>0.6565417450887514</v>
       </c>
     </row>
     <row r="4">
@@ -1637,7 +1637,7 @@
         <v>0.3753299861400901</v>
       </c>
       <c r="CW4" t="n">
-        <v>0.6967469479888274</v>
+        <v>0.5449615508400268</v>
       </c>
     </row>
     <row r="5">
@@ -1942,7 +1942,7 @@
         <v>0.5092169902507915</v>
       </c>
       <c r="CW5" t="n">
-        <v>0.801532625205244</v>
+        <v>0.7063521773202744</v>
       </c>
     </row>
     <row r="6">
@@ -2247,7 +2247,7 @@
         <v>0.9356812160905587</v>
       </c>
       <c r="CW6" t="n">
-        <v>1.123107924256169</v>
+        <v>0.3527504115099048</v>
       </c>
     </row>
     <row r="7">
@@ -2552,7 +2552,7 @@
         <v>0.378183760105876</v>
       </c>
       <c r="CW7" t="n">
-        <v>0.6019691862068135</v>
+        <v>0.5929547387766274</v>
       </c>
     </row>
     <row r="8">
@@ -2857,7 +2857,7 @@
         <v>0.3530791045626102</v>
       </c>
       <c r="CW8" t="n">
-        <v>0.6948852765173149</v>
+        <v>0.5673114112510631</v>
       </c>
     </row>
     <row r="9">
@@ -3162,7 +3162,7 @@
         <v>0.5227036588826678</v>
       </c>
       <c r="CW9" t="n">
-        <v>0.7550434243021947</v>
+        <v>0.7125204781794846</v>
       </c>
     </row>
     <row r="10">
@@ -3467,7 +3467,7 @@
         <v>0.641689303657768</v>
       </c>
       <c r="CW10" t="n">
-        <v>0.8085058281547676</v>
+        <v>0.8026944960510567</v>
       </c>
     </row>
     <row r="11">
@@ -3772,7 +3772,7 @@
         <v>0.4527425221953471</v>
       </c>
       <c r="CW11" t="n">
-        <v>0.7561622035118593</v>
+        <v>0.6791961689821447</v>
       </c>
     </row>
     <row r="12">
@@ -4077,7 +4077,7 @@
         <v>0.980734332903071</v>
       </c>
       <c r="CW12" t="n">
-        <v>1.159653627807064</v>
+        <v>1.105007502865036</v>
       </c>
     </row>
     <row r="13">
@@ -4382,7 +4382,7 @@
         <v>0.5010141795081784</v>
       </c>
       <c r="CW13" t="n">
-        <v>0.7968378013820767</v>
+        <v>0.7143458554893433</v>
       </c>
     </row>
     <row r="14">
@@ -4687,7 +4687,7 @@
         <v>0.3008064336823992</v>
       </c>
       <c r="CW14" t="n">
-        <v>0.6898364751002686</v>
+        <v>0.5932880326746122</v>
       </c>
     </row>
     <row r="15">
@@ -4992,7 +4992,7 @@
         <v>0.6504772286058252</v>
       </c>
       <c r="CW15" t="n">
-        <v>0.8978492358105393</v>
+        <v>0.8261010880680315</v>
       </c>
     </row>
     <row r="16">
@@ -5297,7 +5297,7 @@
         <v>0.3982399907352413</v>
       </c>
       <c r="CW16" t="n">
-        <v>0.7342786773104316</v>
+        <v>0.6445525399937078</v>
       </c>
     </row>
     <row r="17">
@@ -5602,7 +5602,7 @@
         <v>0.6289333940575008</v>
       </c>
       <c r="CW17" t="n">
-        <v>0.882509801670933</v>
+        <v>0.8093647123647792</v>
       </c>
     </row>
     <row r="18">
@@ -5907,7 +5907,7 @@
         <v>0.4663831104511753</v>
       </c>
       <c r="CW18" t="n">
-        <v>0.7750918275665246</v>
+        <v>0.6902097582522349</v>
       </c>
     </row>
     <row r="19">
@@ -6212,7 +6212,7 @@
         <v>0.5404427922774764</v>
       </c>
       <c r="CW19" t="n">
-        <v>0.8215164863178586</v>
+        <v>0.7425444654726215</v>
       </c>
     </row>
     <row r="20">
@@ -6517,7 +6517,7 @@
         <v>0.7047317546608369</v>
       </c>
       <c r="CW20" t="n">
-        <v>0.9367389982328205</v>
+        <v>0.8692165715549782</v>
       </c>
     </row>
     <row r="21">
@@ -6822,7 +6822,7 @@
         <v>0.2615533445403487</v>
       </c>
       <c r="CW21" t="n">
-        <v>0.6873763994529785</v>
+        <v>0.5009195467422032</v>
       </c>
     </row>
     <row r="22">
@@ -7127,7 +7127,7 @@
         <v>0.6129133331282124</v>
       </c>
       <c r="CW22" t="n">
-        <v>0.8717958758936878</v>
+        <v>0.794981393051627</v>
       </c>
     </row>
     <row r="23">
@@ -7432,7 +7432,7 @@
         <v>0.4635924000087616</v>
       </c>
       <c r="CW23" t="n">
-        <v>0.7820088044046463</v>
+        <v>0.6686514455658153</v>
       </c>
     </row>
     <row r="24">
@@ -7737,7 +7737,7 @@
         <v>0.4159766652485638</v>
       </c>
       <c r="CW24" t="n">
-        <v>0.7471482408380535</v>
+        <v>0.6586999452169585</v>
       </c>
     </row>
     <row r="25">
@@ -8042,7 +8042,7 @@
         <v>0.867894525689534</v>
       </c>
       <c r="CW25" t="n">
-        <v>1.067586934823925</v>
+        <v>0.2903354518525811</v>
       </c>
     </row>
     <row r="26">
@@ -8347,7 +8347,7 @@
         <v>0.3941004708960136</v>
       </c>
       <c r="CW26" t="n">
-        <v>0.7335670355932673</v>
+        <v>0.5884702857993901</v>
       </c>
     </row>
     <row r="27">
@@ -8652,7 +8652,7 @@
         <v>0.5603696760987013</v>
       </c>
       <c r="CW27" t="n">
-        <v>0.8360472029299775</v>
+        <v>0.7544868285933855</v>
       </c>
     </row>
     <row r="28">
@@ -8957,7 +8957,7 @@
         <v>0.3385346257835196</v>
       </c>
       <c r="CW28" t="n">
-        <v>0.7049927370027764</v>
+        <v>0.5696556217868256</v>
       </c>
     </row>
     <row r="29">
@@ -9262,7 +9262,7 @@
         <v>0.9852438467352272</v>
       </c>
       <c r="CW29" t="n">
-        <v>1.164950490671614</v>
+        <v>0.4043295740417373</v>
       </c>
     </row>
     <row r="30">
@@ -9567,7 +9567,7 @@
         <v>0.5413826905617928</v>
       </c>
       <c r="CW30" t="n">
-        <v>0.8260950068696897</v>
+        <v>0.7372004123520784</v>
       </c>
     </row>
     <row r="31">
@@ -9872,7 +9872,7 @@
         <v>0.4414527273903219</v>
       </c>
       <c r="CW31" t="n">
-        <v>0.7612235577275402</v>
+        <v>0.6744828223355753</v>
       </c>
     </row>
     <row r="32">
@@ -10177,7 +10177,7 @@
         <v>0.4318129600946293</v>
       </c>
       <c r="CW32" t="n">
-        <v>0.7537591276583449</v>
+        <v>0.6571428823510818</v>
       </c>
     </row>
     <row r="33">
@@ -10482,7 +10482,7 @@
         <v>0.4361585843513824</v>
       </c>
       <c r="CW33" t="n">
-        <v>0.7540132713406784</v>
+        <v>0.3613263607523973</v>
       </c>
     </row>
     <row r="34">
@@ -10787,7 +10787,7 @@
         <v>0.92610921164113</v>
       </c>
       <c r="CW34" t="n">
-        <v>1.114015625196946</v>
+        <v>1.05700673997767</v>
       </c>
     </row>
     <row r="35">
@@ -11092,7 +11092,7 @@
         <v>0.5320406081849935</v>
       </c>
       <c r="CW35" t="n">
-        <v>0.8151802304235485</v>
+        <v>0.7315754939724992</v>
       </c>
     </row>
     <row r="36">
@@ -11397,7 +11397,7 @@
         <v>0.421980635246555</v>
       </c>
       <c r="CW36" t="n">
-        <v>0.747600697634325</v>
+        <v>0.6577034394787534</v>
       </c>
     </row>
     <row r="37">
@@ -11702,7 +11702,7 @@
         <v>0.413039026061708</v>
       </c>
       <c r="CW37" t="n">
-        <v>0.4403164946034337</v>
+        <v>0.5181808223466899</v>
       </c>
     </row>
     <row r="38">
@@ -12007,7 +12007,7 @@
         <v>0.373163064494184</v>
       </c>
       <c r="CW38" t="n">
-        <v>0.7100684078938808</v>
+        <v>0.3559702635179989</v>
       </c>
     </row>
     <row r="39">
@@ -12312,7 +12312,7 @@
         <v>0.5362212321317061</v>
       </c>
       <c r="CW39" t="n">
-        <v>0.8187983024193474</v>
+        <v>0.739378591448239</v>
       </c>
     </row>
     <row r="40">
@@ -12617,7 +12617,7 @@
         <v>0.2934790798856559</v>
       </c>
       <c r="CW40" t="n">
-        <v>0.6770224747218742</v>
+        <v>0.4959971612755367</v>
       </c>
     </row>
     <row r="41">
@@ -12922,7 +12922,7 @@
         <v>0.3309585026734616</v>
       </c>
       <c r="CW41" t="n">
-        <v>0.6431622081270253</v>
+        <v>0.5830245554335878</v>
       </c>
     </row>
     <row r="42">
@@ -13227,7 +13227,7 @@
         <v>0.9049683964700915</v>
       </c>
       <c r="CW42" t="n">
-        <v>1.095558519330348</v>
+        <v>1.035309304669213</v>
       </c>
     </row>
     <row r="43">
@@ -13532,7 +13532,7 @@
         <v>0.3324506320634624</v>
       </c>
       <c r="CW43" t="n">
-        <v>0.6855646644032795</v>
+        <v>0.6024693540874938</v>
       </c>
     </row>
     <row r="44">
@@ -13837,7 +13837,7 @@
         <v>0.4069766582424664</v>
       </c>
       <c r="CW44" t="n">
-        <v>0.7180769095221953</v>
+        <v>0.6192171651724161</v>
       </c>
     </row>
     <row r="45">
@@ -14142,7 +14142,7 @@
         <v>1.015022677067578</v>
       </c>
       <c r="CW45" t="n">
-        <v>1.187978762584934</v>
+        <v>1.132398210541661</v>
       </c>
     </row>
     <row r="46">
@@ -14447,7 +14447,7 @@
         <v>0.4283888215324782</v>
       </c>
       <c r="CW46" t="n">
-        <v>0.7197434759999002</v>
+        <v>0.6286008286604355</v>
       </c>
     </row>
     <row r="47">
@@ -14752,7 +14752,7 @@
         <v>0.3568979938122062</v>
       </c>
       <c r="CW47" t="n">
-        <v>0.714907146446072</v>
+        <v>0.6218908919224426</v>
       </c>
     </row>
     <row r="48">
@@ -15057,7 +15057,7 @@
         <v>0.3115578297890251</v>
       </c>
       <c r="CW48" t="n">
-        <v>0.6758450158428447</v>
+        <v>0.5806436126699974</v>
       </c>
     </row>
     <row r="49">
@@ -15362,7 +15362,7 @@
         <v>0.3041563695058822</v>
       </c>
       <c r="CW49" t="n">
-        <v>0.6426746065821514</v>
+        <v>0.5773516496808949</v>
       </c>
     </row>
     <row r="50">
@@ -15667,7 +15667,7 @@
         <v>0.7592245219161181</v>
       </c>
       <c r="CW50" t="n">
-        <v>0.9793431967479661</v>
+        <v>0.9127497342600128</v>
       </c>
     </row>
     <row r="51">
@@ -15972,7 +15972,7 @@
         <v>1.030960010619792</v>
       </c>
       <c r="CW51" t="n">
-        <v>0.3942023124531153</v>
+        <v>1.081026287244921</v>
       </c>
     </row>
     <row r="52">
@@ -16277,7 +16277,7 @@
         <v>0.409127954121075</v>
       </c>
       <c r="CW52" t="n">
-        <v>0.5567085737061581</v>
+        <v>0.6175238256698538</v>
       </c>
     </row>
     <row r="53">
@@ -16582,7 +16582,7 @@
         <v>0.7540903991959484</v>
       </c>
       <c r="CW53" t="n">
-        <v>0.1441233723835272</v>
+        <v>0.8054002910112567</v>
       </c>
     </row>
     <row r="54">
@@ -16887,7 +16887,7 @@
         <v>0.628177802590534</v>
       </c>
       <c r="CW54" t="n">
-        <v>0.8172404864948223</v>
+        <v>7.321141892578253e-18</v>
       </c>
     </row>
     <row r="55">
@@ -17192,7 +17192,7 @@
         <v>0.9865302797475342</v>
       </c>
       <c r="CW55" t="n">
-        <v>0.344803026501545</v>
+        <v>1.041139678059489</v>
       </c>
     </row>
     <row r="56">
@@ -17497,7 +17497,7 @@
         <v>0.4862908449400544</v>
       </c>
       <c r="CW56" t="n">
-        <v>0.4065042945630204</v>
+        <v>0.6385210429784151</v>
       </c>
     </row>
     <row r="57">
@@ -17802,7 +17802,7 @@
         <v>0.58896856279216</v>
       </c>
       <c r="CW57" t="n">
-        <v>0.1988299546793121</v>
+        <v>0.6752610760216833</v>
       </c>
     </row>
     <row r="58">
@@ -18107,7 +18107,7 @@
         <v>0.5419510655616437</v>
       </c>
       <c r="CW58" t="n">
-        <v>0.2551171846233165</v>
+        <v>0.6883262664559561</v>
       </c>
     </row>
     <row r="59">
@@ -18412,7 +18412,7 @@
         <v>0.6447891252912765</v>
       </c>
       <c r="CW59" t="n">
-        <v>0.3331306470062868</v>
+        <v>0.7556800535450697</v>
       </c>
     </row>
     <row r="60">
@@ -18717,7 +18717,7 @@
         <v>0.7230507162226761</v>
       </c>
       <c r="CW60" t="n">
-        <v>2.776784520572451e-17</v>
+        <v>0.8172404864948223</v>
       </c>
     </row>
     <row r="61">
@@ -19022,7 +19022,7 @@
         <v>0.9651198631979231</v>
       </c>
       <c r="CW61" t="n">
-        <v>1.142670509651315</v>
+        <v>1.090972178312459</v>
       </c>
     </row>
     <row r="62">
@@ -19327,7 +19327,7 @@
         <v>0.3845106952565089</v>
       </c>
       <c r="CW62" t="n">
-        <v>0.6942614610566499</v>
+        <v>0.6108314318546244</v>
       </c>
     </row>
     <row r="63">
@@ -19632,7 +19632,7 @@
         <v>0.5578932036740971</v>
       </c>
       <c r="CW63" t="n">
-        <v>0.828141153656436</v>
+        <v>0.7393175969631509</v>
       </c>
     </row>
     <row r="64">
@@ -19937,7 +19937,7 @@
         <v>0.8400702264385376</v>
       </c>
       <c r="CW64" t="n">
-        <v>1.038999578768764</v>
+        <v>0.9811423079484676</v>
       </c>
     </row>
     <row r="65">
@@ -20242,7 +20242,7 @@
         <v>0.8751415275201402</v>
       </c>
       <c r="CW65" t="n">
-        <v>1.066124229505159</v>
+        <v>1.01185966202263</v>
       </c>
     </row>
     <row r="66">
@@ -20547,7 +20547,7 @@
         <v>1.020245194408624</v>
       </c>
       <c r="CW66" t="n">
-        <v>1.188664628488482</v>
+        <v>1.140140855861726</v>
       </c>
     </row>
     <row r="67">
@@ -20852,7 +20852,7 @@
         <v>0.3959526340214019</v>
       </c>
       <c r="CW67" t="n">
-        <v>0.5242198026686605</v>
+        <v>0.5122787756024035</v>
       </c>
     </row>
     <row r="68">
@@ -21157,7 +21157,7 @@
         <v>1.025939495391348</v>
       </c>
       <c r="CW68" t="n">
-        <v>1.194305214878981</v>
+        <v>1.145363040627795</v>
       </c>
     </row>
     <row r="69">
@@ -21462,7 +21462,7 @@
         <v>0.5359405982028315</v>
       </c>
       <c r="CW69" t="n">
-        <v>0.8160105910053008</v>
+        <v>0.7310899269599965</v>
       </c>
     </row>
     <row r="70">
@@ -21767,7 +21767,7 @@
         <v>0.8851679111699099</v>
       </c>
       <c r="CW70" t="n">
-        <v>1.075569638676885</v>
+        <v>1.020459149988489</v>
       </c>
     </row>
     <row r="71">
@@ -22072,7 +22072,7 @@
         <v>0.466729107012225</v>
       </c>
       <c r="CW71" t="n">
-        <v>0.4682206532781818</v>
+        <v>0.5494380173360148</v>
       </c>
     </row>
     <row r="72">
@@ -22377,7 +22377,7 @@
         <v>0.5436391009647042</v>
       </c>
       <c r="CW72" t="n">
-        <v>0.3438024463557899</v>
+        <v>0.6696709695272735</v>
       </c>
     </row>
     <row r="73">
@@ -22682,7 +22682,7 @@
         <v>0.4290972912528261</v>
       </c>
       <c r="CW73" t="n">
-        <v>0.708903294515845</v>
+        <v>0.5215957597640482</v>
       </c>
     </row>
     <row r="74">
@@ -22987,7 +22987,7 @@
         <v>0.34474131980201</v>
       </c>
       <c r="CW74" t="n">
-        <v>0.6697585749371691</v>
+        <v>0.6032011779342875</v>
       </c>
     </row>
     <row r="75">
@@ -23292,7 +23292,7 @@
         <v>0.4218218560487937</v>
       </c>
       <c r="CW75" t="n">
-        <v>0.7215106990582311</v>
+        <v>0.6400587370808796</v>
       </c>
     </row>
     <row r="76">
@@ -23597,7 +23597,7 @@
         <v>0.325327281925877</v>
       </c>
       <c r="CW76" t="n">
-        <v>0.6882795696550109</v>
+        <v>0.5886430901868478</v>
       </c>
     </row>
     <row r="77">
@@ -23902,7 +23902,7 @@
         <v>0.3729451129723598</v>
       </c>
       <c r="CW77" t="n">
-        <v>0.6277044282706925</v>
+        <v>0.5936146214142221</v>
       </c>
     </row>
     <row r="78">
@@ -24207,7 +24207,7 @@
         <v>0.6402630669095215</v>
       </c>
       <c r="CW78" t="n">
-        <v>0.8747518656081288</v>
+        <v>0.8008903514497323</v>
       </c>
     </row>
     <row r="79">
@@ -24512,7 +24512,7 @@
         <v>0.3114852152599775</v>
       </c>
       <c r="CW79" t="n">
-        <v>0.6806863407276261</v>
+        <v>0.5807268404033343</v>
       </c>
     </row>
     <row r="80">
@@ -24817,7 +24817,7 @@
         <v>0.3985648018534783</v>
       </c>
       <c r="CW80" t="n">
-        <v>0.7360501456965111</v>
+        <v>0.6354361229343595</v>
       </c>
     </row>
     <row r="81">
@@ -25122,7 +25122,7 @@
         <v>0.4211711712421362</v>
       </c>
       <c r="CW81" t="n">
-        <v>0.5892142464610491</v>
+        <v>0.6378653316135695</v>
       </c>
     </row>
     <row r="82">
@@ -25427,7 +25427,7 @@
         <v>0.5880775388912292</v>
       </c>
       <c r="CW82" t="n">
-        <v>0.7680381714067008</v>
+        <v>0.7413521533004099</v>
       </c>
     </row>
     <row r="83">
@@ -25732,7 +25732,7 @@
         <v>0.5541983885834216</v>
       </c>
       <c r="CW83" t="n">
-        <v>0.8254301813049074</v>
+        <v>0.7427769333075309</v>
       </c>
     </row>
     <row r="84">
@@ -26037,7 +26037,7 @@
         <v>0.4934816032578115</v>
       </c>
       <c r="CW84" t="n">
-        <v>0.7751028455471132</v>
+        <v>0.6810210489109257</v>
       </c>
     </row>
     <row r="85">
@@ -26342,7 +26342,7 @@
         <v>0.9286761312977732</v>
       </c>
       <c r="CW85" t="n">
-        <v>1.115760495277959</v>
+        <v>1.0412711284986</v>
       </c>
     </row>
     <row r="86">
@@ -26647,7 +26647,7 @@
         <v>0.9068362234288339</v>
       </c>
       <c r="CW86" t="n">
-        <v>1.095457772811436</v>
+        <v>1.036930521496385</v>
       </c>
     </row>
     <row r="87">
@@ -26952,7 +26952,7 @@
         <v>0.8808646126661597</v>
       </c>
       <c r="CW87" t="n">
-        <v>1.07447993061458</v>
+        <v>1.013778426739952</v>
       </c>
     </row>
     <row r="88">
@@ -27257,7 +27257,7 @@
         <v>0.5070170806199676</v>
       </c>
       <c r="CW88" t="n">
-        <v>0.3205812525028094</v>
+        <v>0.5489083722054716</v>
       </c>
     </row>
     <row r="89">
@@ -27562,7 +27562,7 @@
         <v>0.9006684681860203</v>
       </c>
       <c r="CW89" t="n">
-        <v>1.093274842538294</v>
+        <v>0.3241899383685939</v>
       </c>
     </row>
     <row r="90">
@@ -27867,7 +27867,7 @@
         <v>0.7460043908277398</v>
       </c>
       <c r="CW90" t="n">
-        <v>0.965839555822873</v>
+        <v>0.8604996158377914</v>
       </c>
     </row>
     <row r="91">
@@ -28172,7 +28172,7 @@
         <v>0.6212065561618694</v>
       </c>
       <c r="CW91" t="n">
-        <v>0.8867237426257355</v>
+        <v>0.8138671557511081</v>
       </c>
     </row>
     <row r="92">
@@ -28477,7 +28477,7 @@
         <v>0.4332152124509696</v>
       </c>
       <c r="CW92" t="n">
-        <v>0.7848225674846879</v>
+        <v>0.7006889522535126</v>
       </c>
     </row>
     <row r="93">
@@ -28782,7 +28782,7 @@
         <v>0.2443140164513537</v>
       </c>
       <c r="CW93" t="n">
-        <v>0.7301086739011603</v>
+        <v>0.6375197151872688</v>
       </c>
     </row>
     <row r="94">
@@ -29087,7 +29087,7 @@
         <v>0.3375797024174287</v>
       </c>
       <c r="CW94" t="n">
-        <v>0.8324751329254204</v>
+        <v>0.7543797357184215</v>
       </c>
     </row>
     <row r="95">
@@ -29392,7 +29392,7 @@
         <v>0.3325570268490091</v>
       </c>
       <c r="CW95" t="n">
-        <v>0.7418009859457816</v>
+        <v>0.6520665784025015</v>
       </c>
     </row>
     <row r="96">
@@ -29697,7 +29697,7 @@
         <v>0.32222899784711</v>
       </c>
       <c r="CW96" t="n">
-        <v>0.802345745233784</v>
+        <v>0.7205808065152091</v>
       </c>
     </row>
     <row r="97">
@@ -30002,7 +30002,7 @@
         <v>0.2672113863169452</v>
       </c>
       <c r="CW97" t="n">
-        <v>0.7410008088336184</v>
+        <v>0.6450482697438028</v>
       </c>
     </row>
     <row r="98">
@@ -30307,7 +30307,7 @@
         <v>0.3952673799621697</v>
       </c>
       <c r="CW98" t="n">
-        <v>0.7723259665797969</v>
+        <v>0.6868947398529386</v>
       </c>
     </row>
     <row r="99">
@@ -30612,7 +30612,7 @@
         <v>0.9139202994626802</v>
       </c>
       <c r="CW99" t="n">
-        <v>1.127523265828824</v>
+        <v>1.070937130236967</v>
       </c>
     </row>
     <row r="100">
@@ -30917,309 +30917,309 @@
         <v>0</v>
       </c>
       <c r="CW100" t="n">
-        <v>0.7230507162226761</v>
+        <v>0.628177802590534</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.256647691575202</v>
+        <v>0.69674628497424</v>
       </c>
       <c r="B101" t="n">
-        <v>0.7826124356669476</v>
+        <v>0.6095131131551291</v>
       </c>
       <c r="C101" t="n">
-        <v>0.6580181953493837</v>
+        <v>0.6565417450887514</v>
       </c>
       <c r="D101" t="n">
-        <v>0.6967469479888274</v>
+        <v>0.5449615508400268</v>
       </c>
       <c r="E101" t="n">
-        <v>0.801532625205244</v>
+        <v>0.7063521773202744</v>
       </c>
       <c r="F101" t="n">
-        <v>1.123107924256169</v>
+        <v>0.3527504115099048</v>
       </c>
       <c r="G101" t="n">
-        <v>0.6019691862068135</v>
+        <v>0.5929547387766274</v>
       </c>
       <c r="H101" t="n">
-        <v>0.6948852765173149</v>
+        <v>0.5673114112510631</v>
       </c>
       <c r="I101" t="n">
-        <v>0.7550434243021947</v>
+        <v>0.7125204781794846</v>
       </c>
       <c r="J101" t="n">
-        <v>0.8085058281547676</v>
+        <v>0.8026944960510567</v>
       </c>
       <c r="K101" t="n">
-        <v>0.7561622035118593</v>
+        <v>0.6791961689821447</v>
       </c>
       <c r="L101" t="n">
-        <v>1.159653627807064</v>
+        <v>1.105007502865036</v>
       </c>
       <c r="M101" t="n">
-        <v>0.7968378013820767</v>
+        <v>0.7143458554893433</v>
       </c>
       <c r="N101" t="n">
-        <v>0.6898364751002686</v>
+        <v>0.5932880326746122</v>
       </c>
       <c r="O101" t="n">
-        <v>0.8978492358105393</v>
+        <v>0.8261010880680315</v>
       </c>
       <c r="P101" t="n">
-        <v>0.7342786773104316</v>
+        <v>0.6445525399937078</v>
       </c>
       <c r="Q101" t="n">
-        <v>0.882509801670933</v>
+        <v>0.8093647123647792</v>
       </c>
       <c r="R101" t="n">
-        <v>0.7750918275665246</v>
+        <v>0.6902097582522349</v>
       </c>
       <c r="S101" t="n">
-        <v>0.8215164863178586</v>
+        <v>0.7425444654726215</v>
       </c>
       <c r="T101" t="n">
-        <v>0.9367389982328205</v>
+        <v>0.8692165715549782</v>
       </c>
       <c r="U101" t="n">
-        <v>0.6873763994529785</v>
+        <v>0.5009195467422032</v>
       </c>
       <c r="V101" t="n">
-        <v>0.8717958758936878</v>
+        <v>0.794981393051627</v>
       </c>
       <c r="W101" t="n">
-        <v>0.7820088044046463</v>
+        <v>0.6686514455658153</v>
       </c>
       <c r="X101" t="n">
-        <v>0.7471482408380535</v>
+        <v>0.6586999452169585</v>
       </c>
       <c r="Y101" t="n">
-        <v>1.067586934823925</v>
+        <v>0.2903354518525811</v>
       </c>
       <c r="Z101" t="n">
-        <v>0.7335670355932673</v>
+        <v>0.5884702857993901</v>
       </c>
       <c r="AA101" t="n">
-        <v>0.8360472029299775</v>
+        <v>0.7544868285933855</v>
       </c>
       <c r="AB101" t="n">
-        <v>0.7049927370027764</v>
+        <v>0.5696556217868256</v>
       </c>
       <c r="AC101" t="n">
-        <v>1.164950490671614</v>
+        <v>0.4043295740417373</v>
       </c>
       <c r="AD101" t="n">
-        <v>0.8260950068696897</v>
+        <v>0.7372004123520784</v>
       </c>
       <c r="AE101" t="n">
-        <v>0.7612235577275402</v>
+        <v>0.6744828223355753</v>
       </c>
       <c r="AF101" t="n">
-        <v>0.7537591276583449</v>
+        <v>0.6571428823510818</v>
       </c>
       <c r="AG101" t="n">
-        <v>0.7540132713406784</v>
+        <v>0.3613263607523973</v>
       </c>
       <c r="AH101" t="n">
-        <v>1.114015625196946</v>
+        <v>1.05700673997767</v>
       </c>
       <c r="AI101" t="n">
-        <v>0.8151802304235485</v>
+        <v>0.7315754939724992</v>
       </c>
       <c r="AJ101" t="n">
-        <v>0.747600697634325</v>
+        <v>0.6577034394787534</v>
       </c>
       <c r="AK101" t="n">
-        <v>0.4403164946034337</v>
+        <v>0.5181808223466899</v>
       </c>
       <c r="AL101" t="n">
-        <v>0.7100684078938808</v>
+        <v>0.3559702635179989</v>
       </c>
       <c r="AM101" t="n">
-        <v>0.8187983024193474</v>
+        <v>0.739378591448239</v>
       </c>
       <c r="AN101" t="n">
-        <v>0.6770224747218742</v>
+        <v>0.4959971612755367</v>
       </c>
       <c r="AO101" t="n">
-        <v>0.6431622081270253</v>
+        <v>0.5830245554335878</v>
       </c>
       <c r="AP101" t="n">
-        <v>1.095558519330348</v>
+        <v>1.035309304669213</v>
       </c>
       <c r="AQ101" t="n">
-        <v>0.6855646644032795</v>
+        <v>0.6024693540874938</v>
       </c>
       <c r="AR101" t="n">
-        <v>0.7180769095221953</v>
+        <v>0.6192171651724161</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.187978762584934</v>
+        <v>1.132398210541661</v>
       </c>
       <c r="AT101" t="n">
-        <v>0.7197434759999002</v>
+        <v>0.6286008286604355</v>
       </c>
       <c r="AU101" t="n">
-        <v>0.714907146446072</v>
+        <v>0.6218908919224426</v>
       </c>
       <c r="AV101" t="n">
-        <v>0.6758450158428447</v>
+        <v>0.5806436126699974</v>
       </c>
       <c r="AW101" t="n">
-        <v>0.6426746065821514</v>
+        <v>0.5773516496808949</v>
       </c>
       <c r="AX101" t="n">
-        <v>0.9793431967479661</v>
+        <v>0.9127497342600128</v>
       </c>
       <c r="AY101" t="n">
-        <v>0.3942023124531153</v>
+        <v>1.081026287244921</v>
       </c>
       <c r="AZ101" t="n">
-        <v>0.5567085737061581</v>
+        <v>0.6175238256698538</v>
       </c>
       <c r="BA101" t="n">
-        <v>0.1441233723835272</v>
+        <v>0.8054002910112567</v>
       </c>
       <c r="BB101" t="n">
+        <v>7.321141892578253e-18</v>
+      </c>
+      <c r="BC101" t="n">
+        <v>1.041139678059489</v>
+      </c>
+      <c r="BD101" t="n">
+        <v>0.6385210429784151</v>
+      </c>
+      <c r="BE101" t="n">
+        <v>0.6752610760216833</v>
+      </c>
+      <c r="BF101" t="n">
+        <v>0.6883262664559561</v>
+      </c>
+      <c r="BG101" t="n">
+        <v>0.7556800535450697</v>
+      </c>
+      <c r="BH101" t="n">
         <v>0.8172404864948223</v>
       </c>
-      <c r="BC101" t="n">
-        <v>0.344803026501545</v>
-      </c>
-      <c r="BD101" t="n">
-        <v>0.4065042945630204</v>
-      </c>
-      <c r="BE101" t="n">
-        <v>0.1988299546793121</v>
-      </c>
-      <c r="BF101" t="n">
-        <v>0.2551171846233165</v>
-      </c>
-      <c r="BG101" t="n">
-        <v>0.3331306470062868</v>
-      </c>
-      <c r="BH101" t="n">
-        <v>2.776784520572451e-17</v>
-      </c>
       <c r="BI101" t="n">
-        <v>1.142670509651315</v>
+        <v>1.090972178312459</v>
       </c>
       <c r="BJ101" t="n">
-        <v>0.6942614610566499</v>
+        <v>0.6108314318546244</v>
       </c>
       <c r="BK101" t="n">
-        <v>0.828141153656436</v>
+        <v>0.7393175969631509</v>
       </c>
       <c r="BL101" t="n">
-        <v>1.038999578768764</v>
+        <v>0.9811423079484676</v>
       </c>
       <c r="BM101" t="n">
-        <v>1.066124229505159</v>
+        <v>1.01185966202263</v>
       </c>
       <c r="BN101" t="n">
-        <v>1.188664628488482</v>
+        <v>1.140140855861726</v>
       </c>
       <c r="BO101" t="n">
-        <v>0.5242198026686605</v>
+        <v>0.5122787756024035</v>
       </c>
       <c r="BP101" t="n">
-        <v>1.194305214878981</v>
+        <v>1.145363040627795</v>
       </c>
       <c r="BQ101" t="n">
-        <v>0.8160105910053008</v>
+        <v>0.7310899269599965</v>
       </c>
       <c r="BR101" t="n">
-        <v>1.075569638676885</v>
+        <v>1.020459149988489</v>
       </c>
       <c r="BS101" t="n">
-        <v>0.4682206532781818</v>
+        <v>0.5494380173360148</v>
       </c>
       <c r="BT101" t="n">
-        <v>0.3438024463557899</v>
+        <v>0.6696709695272735</v>
       </c>
       <c r="BU101" t="n">
-        <v>0.708903294515845</v>
+        <v>0.5215957597640482</v>
       </c>
       <c r="BV101" t="n">
-        <v>0.6697585749371691</v>
+        <v>0.6032011779342875</v>
       </c>
       <c r="BW101" t="n">
-        <v>0.7215106990582311</v>
+        <v>0.6400587370808796</v>
       </c>
       <c r="BX101" t="n">
-        <v>0.6882795696550109</v>
+        <v>0.5886430901868478</v>
       </c>
       <c r="BY101" t="n">
-        <v>0.6277044282706925</v>
+        <v>0.5936146214142221</v>
       </c>
       <c r="BZ101" t="n">
-        <v>0.8747518656081288</v>
+        <v>0.8008903514497323</v>
       </c>
       <c r="CA101" t="n">
-        <v>0.6806863407276261</v>
+        <v>0.5807268404033343</v>
       </c>
       <c r="CB101" t="n">
-        <v>0.7360501456965111</v>
+        <v>0.6354361229343595</v>
       </c>
       <c r="CC101" t="n">
-        <v>0.5892142464610491</v>
+        <v>0.6378653316135695</v>
       </c>
       <c r="CD101" t="n">
-        <v>0.7680381714067008</v>
+        <v>0.7413521533004099</v>
       </c>
       <c r="CE101" t="n">
-        <v>0.8254301813049074</v>
+        <v>0.7427769333075309</v>
       </c>
       <c r="CF101" t="n">
-        <v>0.7751028455471132</v>
+        <v>0.6810210489109257</v>
       </c>
       <c r="CG101" t="n">
-        <v>1.115760495277959</v>
+        <v>1.0412711284986</v>
       </c>
       <c r="CH101" t="n">
-        <v>1.095457772811436</v>
+        <v>1.036930521496385</v>
       </c>
       <c r="CI101" t="n">
-        <v>1.07447993061458</v>
+        <v>1.013778426739952</v>
       </c>
       <c r="CJ101" t="n">
-        <v>0.3205812525028094</v>
+        <v>0.5489083722054716</v>
       </c>
       <c r="CK101" t="n">
-        <v>1.093274842538294</v>
+        <v>0.3241899383685939</v>
       </c>
       <c r="CL101" t="n">
-        <v>0.965839555822873</v>
+        <v>0.8604996158377914</v>
       </c>
       <c r="CM101" t="n">
-        <v>0.8867237426257355</v>
+        <v>0.8138671557511081</v>
       </c>
       <c r="CN101" t="n">
-        <v>0.7848225674846879</v>
+        <v>0.7006889522535126</v>
       </c>
       <c r="CO101" t="n">
-        <v>0.7301086739011603</v>
+        <v>0.6375197151872688</v>
       </c>
       <c r="CP101" t="n">
-        <v>0.8324751329254204</v>
+        <v>0.7543797357184215</v>
       </c>
       <c r="CQ101" t="n">
-        <v>0.7418009859457816</v>
+        <v>0.6520665784025015</v>
       </c>
       <c r="CR101" t="n">
-        <v>0.802345745233784</v>
+        <v>0.7205808065152091</v>
       </c>
       <c r="CS101" t="n">
-        <v>0.7410008088336184</v>
+        <v>0.6450482697438028</v>
       </c>
       <c r="CT101" t="n">
-        <v>0.7723259665797969</v>
+        <v>0.6868947398529386</v>
       </c>
       <c r="CU101" t="n">
-        <v>1.127523265828824</v>
+        <v>1.070937130236967</v>
       </c>
       <c r="CV101" t="n">
-        <v>0.7230507162226761</v>
+        <v>0.628177802590534</v>
       </c>
       <c r="CW101" t="n">
         <v>0</v>

--- a/Corel-100-distance.xlsx
+++ b/Corel-100-distance.xlsx
@@ -722,7 +722,7 @@
         <v>0.5591575691626894</v>
       </c>
       <c r="CW1" t="n">
-        <v>0.69674628497424</v>
+        <v>0.5738203944356377</v>
       </c>
     </row>
     <row r="2">
@@ -1027,7 +1027,7 @@
         <v>0.483190620643464</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.6095131131551291</v>
+        <v>0.4953822405745679</v>
       </c>
     </row>
     <row r="3">
@@ -1332,7 +1332,7 @@
         <v>0.4534255425034038</v>
       </c>
       <c r="CW3" t="n">
-        <v>0.6565417450887514</v>
+        <v>0.4665744584517553</v>
       </c>
     </row>
     <row r="4">
@@ -1637,7 +1637,7 @@
         <v>0.3753299861400901</v>
       </c>
       <c r="CW4" t="n">
-        <v>0.5449615508400268</v>
+        <v>0.3890833952438659</v>
       </c>
     </row>
     <row r="5">
@@ -1942,7 +1942,7 @@
         <v>0.5092169902507915</v>
       </c>
       <c r="CW5" t="n">
-        <v>0.7063521773202744</v>
+        <v>0.5315663541270297</v>
       </c>
     </row>
     <row r="6">
@@ -2247,7 +2247,7 @@
         <v>0.9356812160905587</v>
       </c>
       <c r="CW6" t="n">
-        <v>0.3527504115099048</v>
+        <v>0.8894390542330567</v>
       </c>
     </row>
     <row r="7">
@@ -2552,7 +2552,7 @@
         <v>0.378183760105876</v>
       </c>
       <c r="CW7" t="n">
-        <v>0.5929547387766274</v>
+        <v>0.3967999608198107</v>
       </c>
     </row>
     <row r="8">
@@ -2857,7 +2857,7 @@
         <v>0.3530791045626102</v>
       </c>
       <c r="CW8" t="n">
-        <v>0.5673114112510631</v>
+        <v>0.3699603809161011</v>
       </c>
     </row>
     <row r="9">
@@ -3162,7 +3162,7 @@
         <v>0.5227036588826678</v>
       </c>
       <c r="CW9" t="n">
-        <v>0.7125204781794846</v>
+        <v>0.5381451312777125</v>
       </c>
     </row>
     <row r="10">
@@ -3467,7 +3467,7 @@
         <v>0.641689303657768</v>
       </c>
       <c r="CW10" t="n">
-        <v>0.8026944960510567</v>
+        <v>0.6573656587404801</v>
       </c>
     </row>
     <row r="11">
@@ -3772,7 +3772,7 @@
         <v>0.4527425221953471</v>
       </c>
       <c r="CW11" t="n">
-        <v>0.6791961689821447</v>
+        <v>0.4754722126258838</v>
       </c>
     </row>
     <row r="12">
@@ -4077,7 +4077,7 @@
         <v>0.980734332903071</v>
       </c>
       <c r="CW12" t="n">
-        <v>1.105007502865036</v>
+        <v>0.9911588785756027</v>
       </c>
     </row>
     <row r="13">
@@ -4382,7 +4382,7 @@
         <v>0.5010141795081784</v>
       </c>
       <c r="CW13" t="n">
-        <v>0.7143458554893433</v>
+        <v>0.5064271817078769</v>
       </c>
     </row>
     <row r="14">
@@ -4687,7 +4687,7 @@
         <v>0.3008064336823992</v>
       </c>
       <c r="CW14" t="n">
-        <v>0.5932880326746122</v>
+        <v>0.3373340138542902</v>
       </c>
     </row>
     <row r="15">
@@ -4992,7 +4992,7 @@
         <v>0.6504772286058252</v>
       </c>
       <c r="CW15" t="n">
-        <v>0.8261010880680315</v>
+        <v>0.6670067839459641</v>
       </c>
     </row>
     <row r="16">
@@ -5297,7 +5297,7 @@
         <v>0.3982399907352413</v>
       </c>
       <c r="CW16" t="n">
-        <v>0.6445525399937078</v>
+        <v>0.4239101100503665</v>
       </c>
     </row>
     <row r="17">
@@ -5602,7 +5602,7 @@
         <v>0.6289333940575008</v>
       </c>
       <c r="CW17" t="n">
-        <v>0.8093647123647792</v>
+        <v>0.6461598605745826</v>
       </c>
     </row>
     <row r="18">
@@ -5907,7 +5907,7 @@
         <v>0.4663831104511753</v>
       </c>
       <c r="CW18" t="n">
-        <v>0.6902097582522349</v>
+        <v>0.4891236511312699</v>
       </c>
     </row>
     <row r="19">
@@ -6212,7 +6212,7 @@
         <v>0.5404427922774764</v>
       </c>
       <c r="CW19" t="n">
-        <v>0.7425444654726215</v>
+        <v>0.560159810522752</v>
       </c>
     </row>
     <row r="20">
@@ -6517,7 +6517,7 @@
         <v>0.7047317546608369</v>
       </c>
       <c r="CW20" t="n">
-        <v>0.8692165715549782</v>
+        <v>0.7198870405363741</v>
       </c>
     </row>
     <row r="21">
@@ -6822,7 +6822,7 @@
         <v>0.2615533445403487</v>
       </c>
       <c r="CW21" t="n">
-        <v>0.5009195467422032</v>
+        <v>0.2823968141909752</v>
       </c>
     </row>
     <row r="22">
@@ -7127,7 +7127,7 @@
         <v>0.6129133331282124</v>
       </c>
       <c r="CW22" t="n">
-        <v>0.794981393051627</v>
+        <v>0.4827870930064781</v>
       </c>
     </row>
     <row r="23">
@@ -7432,7 +7432,7 @@
         <v>0.4635924000087616</v>
       </c>
       <c r="CW23" t="n">
-        <v>0.6686514455658153</v>
+        <v>0.4079493299186502</v>
       </c>
     </row>
     <row r="24">
@@ -7737,7 +7737,7 @@
         <v>0.4159766652485638</v>
       </c>
       <c r="CW24" t="n">
-        <v>0.6586999452169585</v>
+        <v>0.4422798671867165</v>
       </c>
     </row>
     <row r="25">
@@ -8042,7 +8042,7 @@
         <v>0.867894525689534</v>
       </c>
       <c r="CW25" t="n">
-        <v>0.2903354518525811</v>
+        <v>0.8076943548080341</v>
       </c>
     </row>
     <row r="26">
@@ -8347,7 +8347,7 @@
         <v>0.3941004708960136</v>
       </c>
       <c r="CW26" t="n">
-        <v>0.5884702857993901</v>
+        <v>5.621618559964999e-17</v>
       </c>
     </row>
     <row r="27">
@@ -8652,7 +8652,7 @@
         <v>0.5603696760987013</v>
       </c>
       <c r="CW27" t="n">
-        <v>0.7544868285933855</v>
+        <v>0.2579679116815031</v>
       </c>
     </row>
     <row r="28">
@@ -8957,7 +8957,7 @@
         <v>0.3385346257835196</v>
       </c>
       <c r="CW28" t="n">
-        <v>0.5696556217868256</v>
+        <v>0.3048144127300663</v>
       </c>
     </row>
     <row r="29">
@@ -9262,7 +9262,7 @@
         <v>0.9852438467352272</v>
       </c>
       <c r="CW29" t="n">
-        <v>0.4043295740417373</v>
+        <v>0.9364508831265883</v>
       </c>
     </row>
     <row r="30">
@@ -9567,7 +9567,7 @@
         <v>0.5413826905617928</v>
       </c>
       <c r="CW30" t="n">
-        <v>0.7372004123520784</v>
+        <v>0.2948967157529555</v>
       </c>
     </row>
     <row r="31">
@@ -9872,7 +9872,7 @@
         <v>0.4414527273903219</v>
       </c>
       <c r="CW31" t="n">
-        <v>0.6744828223355753</v>
+        <v>0.4668212435593018</v>
       </c>
     </row>
     <row r="32">
@@ -10177,7 +10177,7 @@
         <v>0.4318129600946293</v>
       </c>
       <c r="CW32" t="n">
-        <v>0.6571428823510818</v>
+        <v>0.454837866935679</v>
       </c>
     </row>
     <row r="33">
@@ -10482,7 +10482,7 @@
         <v>0.4361585843513824</v>
       </c>
       <c r="CW33" t="n">
-        <v>0.3613263607523973</v>
+        <v>0.4223037409266044</v>
       </c>
     </row>
     <row r="34">
@@ -10787,7 +10787,7 @@
         <v>0.92610921164113</v>
       </c>
       <c r="CW34" t="n">
-        <v>1.05700673997767</v>
+        <v>0.9377732890238736</v>
       </c>
     </row>
     <row r="35">
@@ -11092,7 +11092,7 @@
         <v>0.5320406081849935</v>
       </c>
       <c r="CW35" t="n">
-        <v>0.7315754939724992</v>
+        <v>0.5509599811671677</v>
       </c>
     </row>
     <row r="36">
@@ -11397,7 +11397,7 @@
         <v>0.421980635246555</v>
       </c>
       <c r="CW36" t="n">
-        <v>0.6577034394787534</v>
+        <v>0.4458866752264035</v>
       </c>
     </row>
     <row r="37">
@@ -11702,7 +11702,7 @@
         <v>0.413039026061708</v>
       </c>
       <c r="CW37" t="n">
-        <v>0.5181808223466899</v>
+        <v>0.4232183771161056</v>
       </c>
     </row>
     <row r="38">
@@ -12007,7 +12007,7 @@
         <v>0.373163064494184</v>
       </c>
       <c r="CW38" t="n">
-        <v>0.3559702635179989</v>
+        <v>0.3628292656459576</v>
       </c>
     </row>
     <row r="39">
@@ -12312,7 +12312,7 @@
         <v>0.5362212321317061</v>
       </c>
       <c r="CW39" t="n">
-        <v>0.739378591448239</v>
+        <v>0.5559785933679503</v>
       </c>
     </row>
     <row r="40">
@@ -12617,7 +12617,7 @@
         <v>0.2934790798856559</v>
       </c>
       <c r="CW40" t="n">
-        <v>0.4959971612755367</v>
+        <v>0.3129959854591114</v>
       </c>
     </row>
     <row r="41">
@@ -12922,7 +12922,7 @@
         <v>0.3309585026734616</v>
       </c>
       <c r="CW41" t="n">
-        <v>0.5830245554335878</v>
+        <v>0.3547964200537103</v>
       </c>
     </row>
     <row r="42">
@@ -13227,7 +13227,7 @@
         <v>0.9049683964700915</v>
       </c>
       <c r="CW42" t="n">
-        <v>1.035309304669213</v>
+        <v>0.9167896141914484</v>
       </c>
     </row>
     <row r="43">
@@ -13532,7 +13532,7 @@
         <v>0.3324506320634624</v>
       </c>
       <c r="CW43" t="n">
-        <v>0.6024693540874938</v>
+        <v>0.358524993830586</v>
       </c>
     </row>
     <row r="44">
@@ -13837,7 +13837,7 @@
         <v>0.4069766582424664</v>
       </c>
       <c r="CW44" t="n">
-        <v>0.6192171651724161</v>
+        <v>0.4151885073483815</v>
       </c>
     </row>
     <row r="45">
@@ -14142,7 +14142,7 @@
         <v>1.015022677067578</v>
       </c>
       <c r="CW45" t="n">
-        <v>1.132398210541661</v>
+        <v>1.025582304395775</v>
       </c>
     </row>
     <row r="46">
@@ -14447,7 +14447,7 @@
         <v>0.4283888215324782</v>
       </c>
       <c r="CW46" t="n">
-        <v>0.6286008286604355</v>
+        <v>0.4438414340892666</v>
       </c>
     </row>
     <row r="47">
@@ -14752,7 +14752,7 @@
         <v>0.3568979938122062</v>
       </c>
       <c r="CW47" t="n">
-        <v>0.6218908919224426</v>
+        <v>0.3874922290333765</v>
       </c>
     </row>
     <row r="48">
@@ -15057,7 +15057,7 @@
         <v>0.3115578297890251</v>
       </c>
       <c r="CW48" t="n">
-        <v>0.5806436126699974</v>
+        <v>0.3372389092837756</v>
       </c>
     </row>
     <row r="49">
@@ -15362,7 +15362,7 @@
         <v>0.3041563695058822</v>
       </c>
       <c r="CW49" t="n">
-        <v>0.5773516496808949</v>
+        <v>0.3307183378521005</v>
       </c>
     </row>
     <row r="50">
@@ -15667,7 +15667,7 @@
         <v>0.7592245219161181</v>
       </c>
       <c r="CW50" t="n">
-        <v>0.9127497342600128</v>
+        <v>0.772956597114396</v>
       </c>
     </row>
     <row r="51">
@@ -15972,7 +15972,7 @@
         <v>1.030960010619792</v>
       </c>
       <c r="CW51" t="n">
-        <v>1.081026287244921</v>
+        <v>1.038983230605399</v>
       </c>
     </row>
     <row r="52">
@@ -16277,7 +16277,7 @@
         <v>0.409127954121075</v>
       </c>
       <c r="CW52" t="n">
-        <v>0.6175238256698538</v>
+        <v>0.4266072588539514</v>
       </c>
     </row>
     <row r="53">
@@ -16582,7 +16582,7 @@
         <v>0.7540903991959484</v>
       </c>
       <c r="CW53" t="n">
-        <v>0.8054002910112567</v>
+        <v>0.7602736380504116</v>
       </c>
     </row>
     <row r="54">
@@ -16887,7 +16887,7 @@
         <v>0.628177802590534</v>
       </c>
       <c r="CW54" t="n">
-        <v>7.321141892578253e-18</v>
+        <v>0.58847028579939</v>
       </c>
     </row>
     <row r="55">
@@ -17192,7 +17192,7 @@
         <v>0.9865302797475342</v>
       </c>
       <c r="CW55" t="n">
-        <v>1.041139678059489</v>
+        <v>0.9948646773570747</v>
       </c>
     </row>
     <row r="56">
@@ -17497,7 +17497,7 @@
         <v>0.4862908449400544</v>
       </c>
       <c r="CW56" t="n">
-        <v>0.6385210429784151</v>
+        <v>0.50004624060386</v>
       </c>
     </row>
     <row r="57">
@@ -17802,7 +17802,7 @@
         <v>0.58896856279216</v>
       </c>
       <c r="CW57" t="n">
-        <v>0.6752610760216833</v>
+        <v>0.598081498437539</v>
       </c>
     </row>
     <row r="58">
@@ -18107,7 +18107,7 @@
         <v>0.5419510655616437</v>
       </c>
       <c r="CW58" t="n">
-        <v>0.6883262664559561</v>
+        <v>0.5546790520947074</v>
       </c>
     </row>
     <row r="59">
@@ -18412,7 +18412,7 @@
         <v>0.6447891252912765</v>
       </c>
       <c r="CW59" t="n">
-        <v>0.7556800535450697</v>
+        <v>0.6554701210999608</v>
       </c>
     </row>
     <row r="60">
@@ -18717,7 +18717,7 @@
         <v>0.7230507162226761</v>
       </c>
       <c r="CW60" t="n">
-        <v>0.8172404864948223</v>
+        <v>0.7335670355932673</v>
       </c>
     </row>
     <row r="61">
@@ -19022,7 +19022,7 @@
         <v>0.9651198631979231</v>
       </c>
       <c r="CW61" t="n">
-        <v>1.090972178312459</v>
+        <v>0.9764027952210613</v>
       </c>
     </row>
     <row r="62">
@@ -19327,7 +19327,7 @@
         <v>0.3845106952565089</v>
       </c>
       <c r="CW62" t="n">
-        <v>0.6108314318546244</v>
+        <v>0.4025505369050514</v>
       </c>
     </row>
     <row r="63">
@@ -19632,7 +19632,7 @@
         <v>0.5578932036740971</v>
       </c>
       <c r="CW63" t="n">
-        <v>0.7393175969631509</v>
+        <v>0.5767201226679849</v>
       </c>
     </row>
     <row r="64">
@@ -19937,7 +19937,7 @@
         <v>0.8400702264385376</v>
       </c>
       <c r="CW64" t="n">
-        <v>0.9811423079484676</v>
+        <v>0.8529628485249751</v>
       </c>
     </row>
     <row r="65">
@@ -20242,7 +20242,7 @@
         <v>0.8751415275201402</v>
       </c>
       <c r="CW65" t="n">
-        <v>1.01185966202263</v>
+        <v>0.8875565127123456</v>
       </c>
     </row>
     <row r="66">
@@ -20547,7 +20547,7 @@
         <v>1.020245194408624</v>
       </c>
       <c r="CW66" t="n">
-        <v>1.140140855861726</v>
+        <v>1.03088555334092</v>
       </c>
     </row>
     <row r="67">
@@ -20852,7 +20852,7 @@
         <v>0.3959526340214019</v>
       </c>
       <c r="CW67" t="n">
-        <v>0.5122787756024035</v>
+        <v>0.4040974953565998</v>
       </c>
     </row>
     <row r="68">
@@ -21157,7 +21157,7 @@
         <v>1.025939495391348</v>
       </c>
       <c r="CW68" t="n">
-        <v>1.145363040627795</v>
+        <v>1.036556715349452</v>
       </c>
     </row>
     <row r="69">
@@ -21462,7 +21462,7 @@
         <v>0.5359405982028315</v>
       </c>
       <c r="CW69" t="n">
-        <v>0.7310899269599965</v>
+        <v>0.5554728454049984</v>
       </c>
     </row>
     <row r="70">
@@ -21767,7 +21767,7 @@
         <v>0.8851679111699099</v>
       </c>
       <c r="CW70" t="n">
-        <v>1.020459149988489</v>
+        <v>0.8974548102353367</v>
       </c>
     </row>
     <row r="71">
@@ -22072,7 +22072,7 @@
         <v>0.466729107012225</v>
       </c>
       <c r="CW71" t="n">
-        <v>0.5494380173360148</v>
+        <v>0.4660453820756326</v>
       </c>
     </row>
     <row r="72">
@@ -22377,7 +22377,7 @@
         <v>0.5436391009647042</v>
       </c>
       <c r="CW72" t="n">
-        <v>0.6696709695272735</v>
+        <v>0.5506989258363616</v>
       </c>
     </row>
     <row r="73">
@@ -22682,7 +22682,7 @@
         <v>0.4290972912528261</v>
       </c>
       <c r="CW73" t="n">
-        <v>0.5215957597640482</v>
+        <v>0.4313639891085123</v>
       </c>
     </row>
     <row r="74">
@@ -22987,7 +22987,7 @@
         <v>0.34474131980201</v>
       </c>
       <c r="CW74" t="n">
-        <v>0.6032011779342875</v>
+        <v>0.3649478754101049</v>
       </c>
     </row>
     <row r="75">
@@ -23292,7 +23292,7 @@
         <v>0.4218218560487937</v>
       </c>
       <c r="CW75" t="n">
-        <v>0.6400587370808796</v>
+        <v>0.4390720632969063</v>
       </c>
     </row>
     <row r="76">
@@ -23597,7 +23597,7 @@
         <v>0.325327281925877</v>
       </c>
       <c r="CW76" t="n">
-        <v>0.5886430901868478</v>
+        <v>0.3431274735937565</v>
       </c>
     </row>
     <row r="77">
@@ -23902,7 +23902,7 @@
         <v>0.3729451129723598</v>
       </c>
       <c r="CW77" t="n">
-        <v>0.5936146214142221</v>
+        <v>0.3907705779115982</v>
       </c>
     </row>
     <row r="78">
@@ -24207,7 +24207,7 @@
         <v>0.6402630669095215</v>
       </c>
       <c r="CW78" t="n">
-        <v>0.8008903514497323</v>
+        <v>0.6539952300620409</v>
       </c>
     </row>
     <row r="79">
@@ -24512,7 +24512,7 @@
         <v>0.3114852152599775</v>
       </c>
       <c r="CW79" t="n">
-        <v>0.5807268404033343</v>
+        <v>0.3278262865292945</v>
       </c>
     </row>
     <row r="80">
@@ -24817,7 +24817,7 @@
         <v>0.3985648018534783</v>
       </c>
       <c r="CW80" t="n">
-        <v>0.6354361229343595</v>
+        <v>0.4166941370610925</v>
       </c>
     </row>
     <row r="81">
@@ -25122,7 +25122,7 @@
         <v>0.4211711712421362</v>
       </c>
       <c r="CW81" t="n">
-        <v>0.6378653316135695</v>
+        <v>0.4405300563022106</v>
       </c>
     </row>
     <row r="82">
@@ -25427,7 +25427,7 @@
         <v>0.5880775388912292</v>
       </c>
       <c r="CW82" t="n">
-        <v>0.7413521533004099</v>
+        <v>0.6017028061177216</v>
       </c>
     </row>
     <row r="83">
@@ -25732,7 +25732,7 @@
         <v>0.5541983885834216</v>
       </c>
       <c r="CW83" t="n">
-        <v>0.7427769333075309</v>
+        <v>0.5719141233520681</v>
       </c>
     </row>
     <row r="84">
@@ -26037,7 +26037,7 @@
         <v>0.4934816032578115</v>
       </c>
       <c r="CW84" t="n">
-        <v>0.6810210489109257</v>
+        <v>0.5046154682628932</v>
       </c>
     </row>
     <row r="85">
@@ -26342,7 +26342,7 @@
         <v>0.9286761312977732</v>
       </c>
       <c r="CW85" t="n">
-        <v>1.0412711284986</v>
+        <v>0.9372047613190326</v>
       </c>
     </row>
     <row r="86">
@@ -26647,7 +26647,7 @@
         <v>0.9068362234288339</v>
       </c>
       <c r="CW86" t="n">
-        <v>1.036930521496385</v>
+        <v>0.9184721169289876</v>
       </c>
     </row>
     <row r="87">
@@ -26952,7 +26952,7 @@
         <v>0.8808646126661597</v>
       </c>
       <c r="CW87" t="n">
-        <v>1.013778426739952</v>
+        <v>0.8917291543836096</v>
       </c>
     </row>
     <row r="88">
@@ -27257,7 +27257,7 @@
         <v>0.5070170806199676</v>
       </c>
       <c r="CW88" t="n">
-        <v>0.5489083722054716</v>
+        <v>0.5088150827443151</v>
       </c>
     </row>
     <row r="89">
@@ -27562,7 +27562,7 @@
         <v>0.9006684681860203</v>
       </c>
       <c r="CW89" t="n">
-        <v>0.3241899383685939</v>
+        <v>0.8551835303138376</v>
       </c>
     </row>
     <row r="90">
@@ -27867,7 +27867,7 @@
         <v>0.7460043908277398</v>
       </c>
       <c r="CW90" t="n">
-        <v>0.8604996158377914</v>
+        <v>0.7549108804099203</v>
       </c>
     </row>
     <row r="91">
@@ -28172,7 +28172,7 @@
         <v>0.6212065561618694</v>
       </c>
       <c r="CW91" t="n">
-        <v>0.8138671557511081</v>
+        <v>0.6484960275972695</v>
       </c>
     </row>
     <row r="92">
@@ -28477,7 +28477,7 @@
         <v>0.4332152124509696</v>
       </c>
       <c r="CW92" t="n">
-        <v>0.7006889522535126</v>
+        <v>0.4988756634500039</v>
       </c>
     </row>
     <row r="93">
@@ -28782,7 +28782,7 @@
         <v>0.2443140164513537</v>
       </c>
       <c r="CW93" t="n">
-        <v>0.6375197151872688</v>
+        <v>0.411759121286545</v>
       </c>
     </row>
     <row r="94">
@@ -29087,7 +29087,7 @@
         <v>0.3375797024174287</v>
       </c>
       <c r="CW94" t="n">
-        <v>0.7543797357184215</v>
+        <v>0.5741154479785834</v>
       </c>
     </row>
     <row r="95">
@@ -29392,7 +29392,7 @@
         <v>0.3325570268490091</v>
       </c>
       <c r="CW95" t="n">
-        <v>0.6520665784025015</v>
+        <v>0.4293536135061736</v>
       </c>
     </row>
     <row r="96">
@@ -29697,7 +29697,7 @@
         <v>0.32222899784711</v>
       </c>
       <c r="CW96" t="n">
-        <v>0.7205808065152091</v>
+        <v>0.5299606313423278</v>
       </c>
     </row>
     <row r="97">
@@ -30002,7 +30002,7 @@
         <v>0.2672113863169452</v>
       </c>
       <c r="CW97" t="n">
-        <v>0.6450482697438028</v>
+        <v>0.4272063801361015</v>
       </c>
     </row>
     <row r="98">
@@ -30307,7 +30307,7 @@
         <v>0.3952673799621697</v>
       </c>
       <c r="CW98" t="n">
-        <v>0.6868947398529386</v>
+        <v>0.4804571876057873</v>
       </c>
     </row>
     <row r="99">
@@ -30612,7 +30612,7 @@
         <v>0.9139202994626802</v>
       </c>
       <c r="CW99" t="n">
-        <v>1.070937130236967</v>
+        <v>0.9514297314614428</v>
       </c>
     </row>
     <row r="100">
@@ -30917,309 +30917,309 @@
         <v>0</v>
       </c>
       <c r="CW100" t="n">
-        <v>0.628177802590534</v>
+        <v>0.3941004708960136</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.69674628497424</v>
+        <v>0.5738203944356377</v>
       </c>
       <c r="B101" t="n">
-        <v>0.6095131131551291</v>
+        <v>0.4953822405745679</v>
       </c>
       <c r="C101" t="n">
-        <v>0.6565417450887514</v>
+        <v>0.4665744584517553</v>
       </c>
       <c r="D101" t="n">
-        <v>0.5449615508400268</v>
+        <v>0.3890833952438659</v>
       </c>
       <c r="E101" t="n">
-        <v>0.7063521773202744</v>
+        <v>0.5315663541270297</v>
       </c>
       <c r="F101" t="n">
-        <v>0.3527504115099048</v>
+        <v>0.8894390542330567</v>
       </c>
       <c r="G101" t="n">
-        <v>0.5929547387766274</v>
+        <v>0.3967999608198107</v>
       </c>
       <c r="H101" t="n">
-        <v>0.5673114112510631</v>
+        <v>0.3699603809161011</v>
       </c>
       <c r="I101" t="n">
-        <v>0.7125204781794846</v>
+        <v>0.5381451312777125</v>
       </c>
       <c r="J101" t="n">
-        <v>0.8026944960510567</v>
+        <v>0.6573656587404801</v>
       </c>
       <c r="K101" t="n">
-        <v>0.6791961689821447</v>
+        <v>0.4754722126258838</v>
       </c>
       <c r="L101" t="n">
-        <v>1.105007502865036</v>
+        <v>0.9911588785756027</v>
       </c>
       <c r="M101" t="n">
-        <v>0.7143458554893433</v>
+        <v>0.5064271817078769</v>
       </c>
       <c r="N101" t="n">
-        <v>0.5932880326746122</v>
+        <v>0.3373340138542902</v>
       </c>
       <c r="O101" t="n">
-        <v>0.8261010880680315</v>
+        <v>0.6670067839459641</v>
       </c>
       <c r="P101" t="n">
-        <v>0.6445525399937078</v>
+        <v>0.4239101100503665</v>
       </c>
       <c r="Q101" t="n">
-        <v>0.8093647123647792</v>
+        <v>0.6461598605745826</v>
       </c>
       <c r="R101" t="n">
-        <v>0.6902097582522349</v>
+        <v>0.4891236511312699</v>
       </c>
       <c r="S101" t="n">
-        <v>0.7425444654726215</v>
+        <v>0.560159810522752</v>
       </c>
       <c r="T101" t="n">
-        <v>0.8692165715549782</v>
+        <v>0.7198870405363741</v>
       </c>
       <c r="U101" t="n">
-        <v>0.5009195467422032</v>
+        <v>0.2823968141909752</v>
       </c>
       <c r="V101" t="n">
-        <v>0.794981393051627</v>
+        <v>0.4827870930064781</v>
       </c>
       <c r="W101" t="n">
-        <v>0.6686514455658153</v>
+        <v>0.4079493299186502</v>
       </c>
       <c r="X101" t="n">
-        <v>0.6586999452169585</v>
+        <v>0.4422798671867165</v>
       </c>
       <c r="Y101" t="n">
-        <v>0.2903354518525811</v>
+        <v>0.8076943548080341</v>
       </c>
       <c r="Z101" t="n">
-        <v>0.5884702857993901</v>
+        <v>5.621618559964999e-17</v>
       </c>
       <c r="AA101" t="n">
-        <v>0.7544868285933855</v>
+        <v>0.2579679116815031</v>
       </c>
       <c r="AB101" t="n">
-        <v>0.5696556217868256</v>
+        <v>0.3048144127300663</v>
       </c>
       <c r="AC101" t="n">
-        <v>0.4043295740417373</v>
+        <v>0.9364508831265883</v>
       </c>
       <c r="AD101" t="n">
-        <v>0.7372004123520784</v>
+        <v>0.2948967157529555</v>
       </c>
       <c r="AE101" t="n">
-        <v>0.6744828223355753</v>
+        <v>0.4668212435593018</v>
       </c>
       <c r="AF101" t="n">
-        <v>0.6571428823510818</v>
+        <v>0.454837866935679</v>
       </c>
       <c r="AG101" t="n">
-        <v>0.3613263607523973</v>
+        <v>0.4223037409266044</v>
       </c>
       <c r="AH101" t="n">
-        <v>1.05700673997767</v>
+        <v>0.9377732890238736</v>
       </c>
       <c r="AI101" t="n">
-        <v>0.7315754939724992</v>
+        <v>0.5509599811671677</v>
       </c>
       <c r="AJ101" t="n">
-        <v>0.6577034394787534</v>
+        <v>0.4458866752264035</v>
       </c>
       <c r="AK101" t="n">
-        <v>0.5181808223466899</v>
+        <v>0.4232183771161056</v>
       </c>
       <c r="AL101" t="n">
-        <v>0.3559702635179989</v>
+        <v>0.3628292656459576</v>
       </c>
       <c r="AM101" t="n">
-        <v>0.739378591448239</v>
+        <v>0.5559785933679503</v>
       </c>
       <c r="AN101" t="n">
-        <v>0.4959971612755367</v>
+        <v>0.3129959854591114</v>
       </c>
       <c r="AO101" t="n">
-        <v>0.5830245554335878</v>
+        <v>0.3547964200537103</v>
       </c>
       <c r="AP101" t="n">
-        <v>1.035309304669213</v>
+        <v>0.9167896141914484</v>
       </c>
       <c r="AQ101" t="n">
-        <v>0.6024693540874938</v>
+        <v>0.358524993830586</v>
       </c>
       <c r="AR101" t="n">
-        <v>0.6192171651724161</v>
+        <v>0.4151885073483815</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.132398210541661</v>
+        <v>1.025582304395775</v>
       </c>
       <c r="AT101" t="n">
-        <v>0.6286008286604355</v>
+        <v>0.4438414340892666</v>
       </c>
       <c r="AU101" t="n">
-        <v>0.6218908919224426</v>
+        <v>0.3874922290333765</v>
       </c>
       <c r="AV101" t="n">
-        <v>0.5806436126699974</v>
+        <v>0.3372389092837756</v>
       </c>
       <c r="AW101" t="n">
-        <v>0.5773516496808949</v>
+        <v>0.3307183378521005</v>
       </c>
       <c r="AX101" t="n">
-        <v>0.9127497342600128</v>
+        <v>0.772956597114396</v>
       </c>
       <c r="AY101" t="n">
-        <v>1.081026287244921</v>
+        <v>1.038983230605399</v>
       </c>
       <c r="AZ101" t="n">
-        <v>0.6175238256698538</v>
+        <v>0.4266072588539514</v>
       </c>
       <c r="BA101" t="n">
-        <v>0.8054002910112567</v>
+        <v>0.7602736380504116</v>
       </c>
       <c r="BB101" t="n">
-        <v>7.321141892578253e-18</v>
+        <v>0.58847028579939</v>
       </c>
       <c r="BC101" t="n">
-        <v>1.041139678059489</v>
+        <v>0.9948646773570747</v>
       </c>
       <c r="BD101" t="n">
-        <v>0.6385210429784151</v>
+        <v>0.50004624060386</v>
       </c>
       <c r="BE101" t="n">
-        <v>0.6752610760216833</v>
+        <v>0.598081498437539</v>
       </c>
       <c r="BF101" t="n">
-        <v>0.6883262664559561</v>
+        <v>0.5546790520947074</v>
       </c>
       <c r="BG101" t="n">
-        <v>0.7556800535450697</v>
+        <v>0.6554701210999608</v>
       </c>
       <c r="BH101" t="n">
-        <v>0.8172404864948223</v>
+        <v>0.7335670355932673</v>
       </c>
       <c r="BI101" t="n">
-        <v>1.090972178312459</v>
+        <v>0.9764027952210613</v>
       </c>
       <c r="BJ101" t="n">
-        <v>0.6108314318546244</v>
+        <v>0.4025505369050514</v>
       </c>
       <c r="BK101" t="n">
-        <v>0.7393175969631509</v>
+        <v>0.5767201226679849</v>
       </c>
       <c r="BL101" t="n">
-        <v>0.9811423079484676</v>
+        <v>0.8529628485249751</v>
       </c>
       <c r="BM101" t="n">
-        <v>1.01185966202263</v>
+        <v>0.8875565127123456</v>
       </c>
       <c r="BN101" t="n">
-        <v>1.140140855861726</v>
+        <v>1.03088555334092</v>
       </c>
       <c r="BO101" t="n">
-        <v>0.5122787756024035</v>
+        <v>0.4040974953565998</v>
       </c>
       <c r="BP101" t="n">
-        <v>1.145363040627795</v>
+        <v>1.036556715349452</v>
       </c>
       <c r="BQ101" t="n">
-        <v>0.7310899269599965</v>
+        <v>0.5554728454049984</v>
       </c>
       <c r="BR101" t="n">
-        <v>1.020459149988489</v>
+        <v>0.8974548102353367</v>
       </c>
       <c r="BS101" t="n">
-        <v>0.5494380173360148</v>
+        <v>0.4660453820756326</v>
       </c>
       <c r="BT101" t="n">
-        <v>0.6696709695272735</v>
+        <v>0.5506989258363616</v>
       </c>
       <c r="BU101" t="n">
-        <v>0.5215957597640482</v>
+        <v>0.4313639891085123</v>
       </c>
       <c r="BV101" t="n">
-        <v>0.6032011779342875</v>
+        <v>0.3649478754101049</v>
       </c>
       <c r="BW101" t="n">
-        <v>0.6400587370808796</v>
+        <v>0.4390720632969063</v>
       </c>
       <c r="BX101" t="n">
-        <v>0.5886430901868478</v>
+        <v>0.3431274735937565</v>
       </c>
       <c r="BY101" t="n">
-        <v>0.5936146214142221</v>
+        <v>0.3907705779115982</v>
       </c>
       <c r="BZ101" t="n">
-        <v>0.8008903514497323</v>
+        <v>0.6539952300620409</v>
       </c>
       <c r="CA101" t="n">
-        <v>0.5807268404033343</v>
+        <v>0.3278262865292945</v>
       </c>
       <c r="CB101" t="n">
-        <v>0.6354361229343595</v>
+        <v>0.4166941370610925</v>
       </c>
       <c r="CC101" t="n">
-        <v>0.6378653316135695</v>
+        <v>0.4405300563022106</v>
       </c>
       <c r="CD101" t="n">
-        <v>0.7413521533004099</v>
+        <v>0.6017028061177216</v>
       </c>
       <c r="CE101" t="n">
-        <v>0.7427769333075309</v>
+        <v>0.5719141233520681</v>
       </c>
       <c r="CF101" t="n">
-        <v>0.6810210489109257</v>
+        <v>0.5046154682628932</v>
       </c>
       <c r="CG101" t="n">
-        <v>1.0412711284986</v>
+        <v>0.9372047613190326</v>
       </c>
       <c r="CH101" t="n">
-        <v>1.036930521496385</v>
+        <v>0.9184721169289876</v>
       </c>
       <c r="CI101" t="n">
-        <v>1.013778426739952</v>
+        <v>0.8917291543836096</v>
       </c>
       <c r="CJ101" t="n">
-        <v>0.5489083722054716</v>
+        <v>0.5088150827443151</v>
       </c>
       <c r="CK101" t="n">
-        <v>0.3241899383685939</v>
+        <v>0.8551835303138376</v>
       </c>
       <c r="CL101" t="n">
-        <v>0.8604996158377914</v>
+        <v>0.7549108804099203</v>
       </c>
       <c r="CM101" t="n">
-        <v>0.8138671557511081</v>
+        <v>0.6484960275972695</v>
       </c>
       <c r="CN101" t="n">
-        <v>0.7006889522535126</v>
+        <v>0.4988756634500039</v>
       </c>
       <c r="CO101" t="n">
-        <v>0.6375197151872688</v>
+        <v>0.411759121286545</v>
       </c>
       <c r="CP101" t="n">
-        <v>0.7543797357184215</v>
+        <v>0.5741154479785834</v>
       </c>
       <c r="CQ101" t="n">
-        <v>0.6520665784025015</v>
+        <v>0.4293536135061736</v>
       </c>
       <c r="CR101" t="n">
-        <v>0.7205808065152091</v>
+        <v>0.5299606313423278</v>
       </c>
       <c r="CS101" t="n">
-        <v>0.6450482697438028</v>
+        <v>0.4272063801361015</v>
       </c>
       <c r="CT101" t="n">
-        <v>0.6868947398529386</v>
+        <v>0.4804571876057873</v>
       </c>
       <c r="CU101" t="n">
-        <v>1.070937130236967</v>
+        <v>0.9514297314614428</v>
       </c>
       <c r="CV101" t="n">
-        <v>0.628177802590534</v>
+        <v>0.3941004708960136</v>
       </c>
       <c r="CW101" t="n">
         <v>0</v>
